--- a/StructureDefinition-onconova-ecog-performance-status.xlsx
+++ b/StructureDefinition-onconova-ecog-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:38:38+00:00</t>
+    <t>2025-10-15T14:58:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ecog-performance-status.xlsx
+++ b/StructureDefinition-onconova-ecog-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:58:32+00:00</t>
+    <t>2025-10-15T15:04:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ecog-performance-status.xlsx
+++ b/StructureDefinition-onconova-ecog-performance-status.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:04:18+00:00</t>
+    <t>2025-10-17T13:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,7 +277,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}o-obs-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-obs-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -705,7 +705,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
 </t>
   </si>
   <si>
@@ -736,7 +736,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition|0.2.0)
 </t>
   </si>
   <si>
@@ -782,8 +782,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-Period</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>(USCDI) Clinically relevant time/time-period for observation</t>

--- a/StructureDefinition-onconova-ecog-performance-status.xlsx
+++ b/StructureDefinition-onconova-ecog-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:44:17+00:00</t>
+    <t>2025-11-07T05:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ecog-performance-status.xlsx
+++ b/StructureDefinition-onconova-ecog-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T05:59:36+00:00</t>
+    <t>2025-11-11T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ecog-performance-status.xlsx
+++ b/StructureDefinition-onconova-ecog-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:30:26+00:00</t>
+    <t>2025-11-11T12:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ecog-performance-status.xlsx
+++ b/StructureDefinition-onconova-ecog-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:47:38+00:00</t>
+    <t>2025-11-18T09:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ecog-performance-status.xlsx
+++ b/StructureDefinition-onconova-ecog-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:06:42+00:00</t>
+    <t>2025-11-19T13:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ecog-performance-status.xlsx
+++ b/StructureDefinition-onconova-ecog-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T13:56:54+00:00</t>
+    <t>2025-11-19T14:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ecog-performance-status.xlsx
+++ b/StructureDefinition-onconova-ecog-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:47:01+00:00</t>
+    <t>2025-11-21T06:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ecog-performance-status.xlsx
+++ b/StructureDefinition-onconova-ecog-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T06:40:28+00:00</t>
+    <t>2025-11-21T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ecog-performance-status.xlsx
+++ b/StructureDefinition-onconova-ecog-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T12:46:13+00:00</t>
+    <t>2025-11-21T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ecog-performance-status.xlsx
+++ b/StructureDefinition-onconova-ecog-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:06:51+00:00</t>
+    <t>2025-11-22T09:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ecog-performance-status.xlsx
+++ b/StructureDefinition-onconova-ecog-performance-status.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="434">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:54:31+00:00</t>
+    <t>2025-11-22T09:58:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,8 +84,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile representing ECOG performance status score for a cancer patient.
-Adds minimal constraints to the mCODE [`ECOGPerformanceStatus` profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-ecog-performance-status) to account for Onconova specifics.</t>
+    <t xml:space="preserve">A profile representing the (Eastern Cooperative Oncology Group) ECOG performance status score for a cancer patient.
+Adds minimal constraints to the mCODE [`ECOGPerformanceStatus` profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-ecog-performance-status) to account for Onconova specifics.
+**Conformance:**
+Observation resources representing an ECOG performance status score in the scope of Onconova SHALL conform to this profile. Any resource intended to conform to this profile SHOULD populate `meta.profile` accordingly. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -115,7 +117,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-ecog-performance-status|4.0.0</t>
+    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-ecog-performance-status</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -378,7 +380,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -514,7 +516,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest|4.0.1|CarePlan|4.0.1)
+    <t xml:space="preserve">Reference(ServiceRequest|CarePlan)
 </t>
   </si>
   <si>
@@ -540,7 +542,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Procedure|4.0.1)
+    <t xml:space="preserve">Reference(Procedure)
 </t>
   </si>
   <si>
@@ -569,9 +571,6 @@
   </si>
   <si>
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>final</t>
   </si>
   <si>
     <t>required</t>
@@ -620,7 +619,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
     <t xml:space="preserve">pattern:$this}
@@ -648,7 +647,7 @@
     <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-clinical-result-observation-category|6.1.0</t>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-clinical-result-observation-category</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -681,7 +680,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -705,7 +704,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient)
 </t>
   </si>
   <si>
@@ -736,8 +735,14 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition|0.2.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition)
 </t>
+  </si>
+  <si>
+    <t>What the observation is about, when it is not about the subject of record</t>
+  </si>
+  <si>
+    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
     <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
@@ -753,7 +758,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -840,7 +845,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -911,7 +916,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
     <t>obs-6
@@ -993,7 +998,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1020,7 +1025,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1032,7 +1037,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen|4.0.1)
+    <t xml:space="preserve">Reference(Specimen)
 </t>
   </si>
   <si>
@@ -1054,7 +1059,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
+    <t xml:space="preserve">Reference(Device|DeviceMetric)
 </t>
   </si>
   <si>
@@ -1144,7 +1149,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1194,7 +1199,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1227,7 +1232,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1264,7 +1269,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
+    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
 </t>
   </si>
   <si>
@@ -1280,7 +1285,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
+    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
 </t>
   </si>
   <si>
@@ -1375,7 +1380,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -1723,7 +1728,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="115.37890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="88.20703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1738,7 +1743,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="150.18359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
@@ -3374,28 +3379,28 @@
         <v>20</v>
       </c>
       <c r="S14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="T14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -3428,19 +3433,19 @@
         <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AN14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>20</v>
@@ -3448,10 +3453,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3474,19 +3479,19 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3514,26 +3519,26 @@
         <v>115</v>
       </c>
       <c r="Y15" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="Z15" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB15" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3557,10 +3562,10 @@
         <v>20</v>
       </c>
       <c r="AN15" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AO15" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>20</v>
@@ -3568,13 +3573,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C16" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>20</v>
@@ -3596,19 +3601,19 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -3633,14 +3638,14 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Y16" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Z16" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>202</v>
-      </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
       </c>
@@ -3657,7 +3662,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3681,10 +3686,10 @@
         <v>20</v>
       </c>
       <c r="AN16" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>20</v>
@@ -3692,14 +3697,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3718,19 +3723,19 @@
         <v>92</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -3740,26 +3745,26 @@
         <v>20</v>
       </c>
       <c r="S17" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
@@ -3777,7 +3782,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>91</v>
@@ -3792,30 +3797,30 @@
         <v>103</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AO17" t="s" s="2">
+      <c r="AP17" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>217</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3838,19 +3843,19 @@
         <v>92</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -3899,7 +3904,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -3914,30 +3919,30 @@
         <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AO18" t="s" s="2">
+      <c r="AP18" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AP18" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" hidden="true">
-      <c r="A19" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="B19" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3945,13 +3950,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>20</v>
@@ -3960,16 +3965,16 @@
         <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>160</v>
-      </c>
       <c r="M19" t="s" s="2">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4019,7 +4024,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4040,13 +4045,13 @@
         <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>20</v>
@@ -4054,14 +4059,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4080,7 +4085,7 @@
         <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>160</v>
@@ -4089,10 +4094,10 @@
         <v>160</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -4141,7 +4146,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4156,19 +4161,19 @@
         <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>20</v>
@@ -4176,18 +4181,18 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>91</v>
@@ -4202,19 +4207,19 @@
         <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4263,7 +4268,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4272,25 +4277,25 @@
         <v>91</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>20</v>
@@ -4298,10 +4303,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4324,7 +4329,7 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>160</v>
@@ -4333,7 +4338,7 @@
         <v>160</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4383,7 +4388,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4404,13 +4409,13 @@
         <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>20</v>
@@ -4418,10 +4423,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4444,7 +4449,7 @@
         <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>160</v>
@@ -4454,7 +4459,7 @@
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4503,7 +4508,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4518,19 +4523,19 @@
         <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>20</v>
@@ -4538,10 +4543,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4549,7 +4554,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>91</v>
@@ -4564,19 +4569,19 @@
         <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4625,7 +4630,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4634,36 +4639,36 @@
         <v>91</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4686,7 +4691,7 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>160</v>
@@ -4695,10 +4700,10 @@
         <v>160</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4723,13 +4728,13 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
@@ -4747,7 +4752,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4756,7 +4761,7 @@
         <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>103</v>
@@ -4771,7 +4776,7 @@
         <v>134</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>20</v>
@@ -4782,21 +4787,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>92</v>
@@ -4808,19 +4813,19 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -4845,11 +4850,11 @@
         <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>20</v>
@@ -4867,7 +4872,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4885,27 +4890,27 @@
         <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4928,19 +4933,19 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -4989,7 +4994,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5010,10 +5015,10 @@
         <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>20</v>
@@ -5024,10 +5029,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5050,7 +5055,7 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>160</v>
@@ -5059,7 +5064,7 @@
         <v>160</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5085,13 +5090,13 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -5109,7 +5114,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5127,27 +5132,27 @@
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5170,7 +5175,7 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>160</v>
@@ -5179,10 +5184,10 @@
         <v>160</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5207,13 +5212,13 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5231,7 +5236,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5252,10 +5257,10 @@
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>20</v>
@@ -5266,10 +5271,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5292,7 +5297,7 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>160</v>
@@ -5301,7 +5306,7 @@
         <v>160</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5351,7 +5356,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5369,27 +5374,27 @@
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5412,7 +5417,7 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>160</v>
@@ -5421,7 +5426,7 @@
         <v>160</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5471,7 +5476,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5489,27 +5494,27 @@
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5532,7 +5537,7 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>160</v>
@@ -5541,10 +5546,10 @@
         <v>160</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5593,7 +5598,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5605,7 +5610,7 @@
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>20</v>
@@ -5614,10 +5619,10 @@
         <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
@@ -5628,10 +5633,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5654,13 +5659,13 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5711,7 +5716,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5735,7 +5740,7 @@
         <v>20</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -5746,10 +5751,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5778,7 +5783,7 @@
         <v>138</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>140</v>
@@ -5831,7 +5836,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5855,7 +5860,7 @@
         <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -5866,14 +5871,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5895,10 +5900,10 @@
         <v>137</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>140</v>
@@ -5953,7 +5958,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -5988,10 +5993,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6014,13 +6019,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6071,7 +6076,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6080,7 +6085,7 @@
         <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>103</v>
@@ -6092,10 +6097,10 @@
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>20</v>
@@ -6106,10 +6111,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6132,13 +6137,13 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6189,7 +6194,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6198,7 +6203,7 @@
         <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>103</v>
@@ -6210,10 +6215,10 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
@@ -6224,10 +6229,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6250,19 +6255,19 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6290,10 +6295,10 @@
         <v>115</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -6311,7 +6316,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6329,13 +6334,13 @@
         <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -6346,10 +6351,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6372,19 +6377,19 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6409,13 +6414,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6433,7 +6438,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6451,13 +6456,13 @@
         <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
@@ -6468,10 +6473,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6494,17 +6499,17 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6553,7 +6558,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6577,7 +6582,7 @@
         <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -6588,10 +6593,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6614,13 +6619,13 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6671,7 +6676,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6692,10 +6697,10 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
@@ -6706,10 +6711,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6732,7 +6737,7 @@
         <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>160</v>
@@ -6741,7 +6746,7 @@
         <v>160</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6791,7 +6796,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6812,10 +6817,10 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -6826,10 +6831,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6852,7 +6857,7 @@
         <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>160</v>
@@ -6861,7 +6866,7 @@
         <v>160</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6911,7 +6916,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6932,10 +6937,10 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -6946,10 +6951,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6972,7 +6977,7 @@
         <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>160</v>
@@ -6981,10 +6986,10 @@
         <v>160</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7033,7 +7038,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7054,10 +7059,10 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -7068,10 +7073,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7094,13 +7099,13 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7151,7 +7156,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7175,7 +7180,7 @@
         <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -7186,10 +7191,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7218,7 +7223,7 @@
         <v>138</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>140</v>
@@ -7271,7 +7276,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7295,7 +7300,7 @@
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7306,14 +7311,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7335,10 +7340,10 @@
         <v>137</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>140</v>
@@ -7393,7 +7398,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7428,10 +7433,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7454,19 +7459,19 @@
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7491,13 +7496,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7515,7 +7520,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>91</v>
@@ -7533,16 +7538,16 @@
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AN48" t="s" s="2">
+      <c r="AO48" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>20</v>
@@ -7550,10 +7555,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7576,19 +7581,19 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -7637,7 +7642,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7655,27 +7660,27 @@
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7698,19 +7703,19 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -7735,13 +7740,13 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -7759,7 +7764,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7768,7 +7773,7 @@
         <v>91</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>103</v>
@@ -7783,7 +7788,7 @@
         <v>134</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -7794,14 +7799,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7820,19 +7825,19 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -7857,31 +7862,31 @@
         <v>20</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF51" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7899,27 +7904,27 @@
         <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7945,16 +7950,16 @@
         <v>82</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -8003,7 +8008,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8024,10 +8029,10 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-onconova-ecog-performance-status.xlsx
+++ b/StructureDefinition-onconova-ecog-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:58:04+00:00</t>
+    <t>2025-11-24T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ecog-performance-status.xlsx
+++ b/StructureDefinition-onconova-ecog-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:04:46+00:00</t>
+    <t>2025-11-24T08:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ecog-performance-status.xlsx
+++ b/StructureDefinition-onconova-ecog-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:19:06+00:00</t>
+    <t>2025-11-24T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ecog-performance-status.xlsx
+++ b/StructureDefinition-onconova-ecog-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:55:00+00:00</t>
+    <t>2025-11-24T09:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ecog-performance-status.xlsx
+++ b/StructureDefinition-onconova-ecog-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:24:28+00:00</t>
+    <t>2025-11-24T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ecog-performance-status.xlsx
+++ b/StructureDefinition-onconova-ecog-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T11:19:41+00:00</t>
+    <t>2025-11-25T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ecog-performance-status.xlsx
+++ b/StructureDefinition-onconova-ecog-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T07:35:44+00:00</t>
+    <t>2025-11-25T10:34:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ecog-performance-status.xlsx
+++ b/StructureDefinition-onconova-ecog-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T10:34:25+00:00</t>
+    <t>2025-11-27T10:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ecog-performance-status.xlsx
+++ b/StructureDefinition-onconova-ecog-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T10:13:46+00:00</t>
+    <t>2025-11-27T13:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ecog-performance-status.xlsx
+++ b/StructureDefinition-onconova-ecog-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T13:06:44+00:00</t>
+    <t>2025-12-04T06:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ecog-performance-status.xlsx
+++ b/StructureDefinition-onconova-ecog-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:29:30+00:00</t>
+    <t>2025-12-04T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,7 +279,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}o-obs-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-obs-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}o-obs-req-1:The subject element is required and must be provided. {subject.exists()}o-obs-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/StructureDefinition-onconova-ecog-performance-status.xlsx
+++ b/StructureDefinition-onconova-ecog-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:46:00+00:00</t>
+    <t>2025-12-04T07:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ecog-performance-status.xlsx
+++ b/StructureDefinition-onconova-ecog-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T07:07:35+00:00</t>
+    <t>2025-12-04T10:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ecog-performance-status.xlsx
+++ b/StructureDefinition-onconova-ecog-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:18:27+00:00</t>
+    <t>2025-12-04T10:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ecog-performance-status.xlsx
+++ b/StructureDefinition-onconova-ecog-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:59:28+00:00</t>
+    <t>2026-02-25T14:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ecog-performance-status.xlsx
+++ b/StructureDefinition-onconova-ecog-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T14:29:35+00:00</t>
+    <t>2026-02-25T15:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
